--- a/data/epa_xls/lmopdataid.xlsx
+++ b/data/epa_xls/lmopdataid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D709E90B-0921-4995-988E-A4154A85E6DF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53B1B1-0F5B-46A8-821B-728F1CF2148A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{12BAA597-F261-4220-9AC0-56780882D426}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{135D5012-A4BA-4197-9AA6-24F4CB2E1920}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1543562E-1BB8-4D75-8614-802E20EDD5A2}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4D67861A-08F9-42E6-849D-4D6ED9FD08DF}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{86371ED5-18A2-471F-90E4-B1395D27F683}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1E3AAB36-19B7-4FAD-ABDF-54BAADF4E2D7}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BD12F0A7-86D3-4FF3-BDB5-57C102CA547C}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3B648B28-308E-4532-AB89-64D228DD5235}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3DBD167A-7BD4-454F-9543-E451DC76F59C}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{049EFE2E-B7C5-4125-82D4-C660C1AECB93}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5EBF7E99-8868-4CFA-95A9-A8B806BFC650}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{46F901B4-CF78-4AA8-94B9-50F9489F3FF6}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7A6265AA-948B-4AAE-A5B8-CB11EE733F72}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1AB53598-7678-4B99-849D-C1BFBD46CD73}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{3DDD5CBB-7D9F-40F5-93E3-4497B9ED8EE5}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0C7F5C98-2DC4-40AC-B00E-B20B5ABF3054}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{9CA19D0B-A5B7-4970-83AA-B3B9A7B82DDF}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{34117CA4-0BE0-46A6-A993-872984A69F94}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{FC6C6802-E773-4D74-A6A8-B46063E50A6F}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{637B88AE-D26B-40F5-AB80-EF09E9964E8D}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{E94FD1C6-7C2A-4DA2-8FC8-86C9EBD3D38C}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{B3E6B6BE-A153-406C-A74B-F71472FAA49F}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{5262D2F7-05D2-4333-BD83-1E55A569B7E9}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{6428F2A3-CCE5-431A-8C83-13A06456D88A}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4195765E-713D-429C-834C-A5B00982FC2C}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{65ECD67D-575F-4E8C-B731-1604463850A3}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{621F7CC6-B88A-4474-B3DB-68320BAEA03A}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{5C8BDD66-C8D2-41A5-A3EC-367035FD37C7}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{FA7FED91-8B48-4049-B528-3BC48F84777A}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{CFD44065-59FF-4CA1-8807-427A8EC5415E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{D28F95DB-0CA4-4DD8-A21E-9A63DEAB693B}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{6816456E-7145-4A35-ADA7-FEDDE959F93C}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{96380BBF-B728-4A30-A531-D978040B8F66}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="302">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -717,9 +728,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -937,12 +945,6 @@
     <t>Project #2</t>
   </si>
   <si>
-    <t>181103-1</t>
-  </si>
-  <si>
-    <t>Project #2, Expansion #1</t>
-  </si>
-  <si>
     <t>1002699</t>
   </si>
   <si>
@@ -1527,12 +1529,28 @@
   </si>
   <si>
     <t>Project #1, Expansion #1</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1824,7 +1842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1947,6 +1965,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1992,10 +2023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2378,10 +2405,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2403,36 +2430,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2447,70 +2474,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2519,20 +2546,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2543,16 +2570,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2574,14 +2601,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Idaho</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF36"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2611,19 +2638,18 @@
     <col min="18" max="18" width="9.88671875" customWidth="1"/>
     <col min="19" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" customWidth="1"/>
+    <col min="22" max="22" width="10.21875" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" customWidth="1"/>
-    <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2706,45 +2732,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5">
         <v>2165</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I2" s="5">
         <v>43.698</v>
@@ -2753,10 +2782,10 @@
         <v>-116.283</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M2" s="5">
         <v>1972</v>
@@ -2765,80 +2794,83 @@
         <v>2100</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6">
+        <v>14706760</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6">
-        <v>14257317</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5">
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="5">
-        <v>4.226</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2.4260000000000002</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="X2" s="7">
         <v>38929</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5">
         <v>3.2</v>
       </c>
       <c r="AD2" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="AE2" s="5">
         <v>1.8</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="49">
         <v>0.14457999999999999</v>
       </c>
-      <c r="AF2" s="6">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AG2" s="49">
+        <v>1.6879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10">
         <v>2165</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="H3" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I3" s="10">
         <v>43.698</v>
@@ -2847,10 +2879,10 @@
         <v>-116.283</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M3" s="10">
         <v>1972</v>
@@ -2859,128 +2891,130 @@
         <v>2100</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11">
+        <v>14706760</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="11">
-        <v>14257317</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S3" s="10">
-        <v>4.226</v>
+        <v>4.2859999999999996</v>
       </c>
       <c r="T3" s="10">
-        <v>2.4260000000000002</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>2166</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>2187</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="I5" s="10">
         <v>42.321300000000001</v>
@@ -2989,10 +3023,10 @@
         <v>-111.2479</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M5" s="10">
         <v>1973</v>
@@ -3001,58 +3035,59 @@
         <v>2042</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>2167</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I6" s="10">
         <v>43.078000000000003</v>
@@ -3061,10 +3096,10 @@
         <v>-115.57599999999999</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M6" s="10">
         <v>1988</v>
@@ -3073,58 +3108,59 @@
         <v>2070</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>2168</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="I7" s="10">
         <v>43.296999999999997</v>
@@ -3133,68 +3169,69 @@
         <v>-112.07</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10">
         <v>2000</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>2169</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I8" s="10">
         <v>43.296999999999997</v>
@@ -3203,10 +3240,10 @@
         <v>-112.075</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M8" s="10">
         <v>1987</v>
@@ -3215,58 +3252,59 @@
         <v>2002</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>2170</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I9" s="10">
         <v>43.852600000000002</v>
@@ -3275,66 +3313,67 @@
         <v>-115.8737</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
         <v>2171</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>242</v>
       </c>
       <c r="I10" s="10">
         <v>43.428800000000003</v>
@@ -3343,68 +3382,69 @@
         <v>-111.85720000000001</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M10" s="10">
         <v>1993</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10">
         <v>2172</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="I11" s="10">
         <v>48.718577000000003</v>
@@ -3413,10 +3453,10 @@
         <v>-116.317134</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M11" s="10">
         <v>1971</v>
@@ -3425,124 +3465,126 @@
         <v>2022</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>2173</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10">
         <v>2022</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-    </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10">
         <v>2174</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I13" s="10">
         <v>43.788499999999999</v>
@@ -3551,68 +3593,69 @@
         <v>-113.015</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-    </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B14" s="10">
         <v>2183</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I14" s="10">
         <v>43.850999999999999</v>
@@ -3621,10 +3664,10 @@
         <v>-112.539</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M14" s="10">
         <v>1996</v>
@@ -3633,7 +3676,7 @@
         <v>2050</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="11">
         <v>548967</v>
@@ -3642,53 +3685,54 @@
         <v>2014</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-    </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+    </row>
+    <row r="15" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10">
         <v>2190</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I15" s="10">
         <v>44.064473999999997</v>
@@ -3697,10 +3741,10 @@
         <v>-116.86113899999999</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M15" s="10">
         <v>1993</v>
@@ -3709,7 +3753,7 @@
         <v>2085</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="11">
         <v>977483</v>
@@ -3718,55 +3762,56 @@
         <v>2007</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-    </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+    </row>
+    <row r="16" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="10">
         <v>2067</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="I16" s="10">
         <v>47.533999999999999</v>
@@ -3775,10 +3820,10 @@
         <v>-116.934</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M16" s="10">
         <v>1993</v>
@@ -3787,29 +3832,29 @@
         <v>2040</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="11">
+        <v>3169217</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R16" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P16" s="11">
-        <v>2993974</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S16" s="10">
         <v>1.35</v>
       </c>
       <c r="T16" s="10"/>
       <c r="U16" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X16" s="12">
         <v>36217</v>
@@ -3818,43 +3863,44 @@
         <v>41912</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="10">
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10">
         <v>0.65</v>
       </c>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-    </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+    </row>
+    <row r="17" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="10">
         <v>2067</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="G17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="I17" s="10">
         <v>47.533999999999999</v>
@@ -3863,10 +3909,10 @@
         <v>-116.934</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M17" s="10">
         <v>1993</v>
@@ -3875,166 +3921,178 @@
         <v>2040</v>
       </c>
       <c r="O17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="11">
+        <v>3169217</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R17" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P17" s="11">
-        <v>2993974</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S17" s="10">
         <v>1.35</v>
       </c>
       <c r="T17" s="10"/>
       <c r="U17" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X17" s="12">
         <v>40969</v>
       </c>
       <c r="Y17" s="12"/>
       <c r="Z17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="11">
-        <v>0.31630000000000003</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="AF17" s="50">
+        <v>5.8729999999999997E-2</v>
+      </c>
+      <c r="AG17" s="50">
+        <v>6.8599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B18" s="10">
-        <v>2067</v>
+        <v>1988</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I18" s="10">
-        <v>47.533999999999999</v>
+        <v>42.781999999999996</v>
       </c>
       <c r="J18" s="10">
-        <v>-116.934</v>
+        <v>-112.375</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="10">
+        <v>1943</v>
+      </c>
+      <c r="N18" s="10">
+        <v>2060</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" s="10">
-        <v>1993</v>
-      </c>
-      <c r="N18" s="10">
-        <v>2040</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="11">
+        <v>3407622</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="11">
-        <v>2993974</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="S18" s="10">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="10">
-        <v>1.35</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="V18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W18" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="X18" s="12">
-        <v>42736</v>
+        <v>41743</v>
       </c>
       <c r="Y18" s="12"/>
       <c r="Z18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="11">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="AF18" s="11">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AF18" s="50">
+        <v>3.6139999999999999E-2</v>
+      </c>
+      <c r="AG18" s="50">
+        <v>4.2199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10">
         <v>1988</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="I19" s="10">
         <v>42.781999999999996</v>
@@ -4043,10 +4101,10 @@
         <v>-112.375</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M19" s="10">
         <v>1943</v>
@@ -4055,1262 +4113,1265 @@
         <v>2060</v>
       </c>
       <c r="O19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="11">
+        <v>3407622</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="11">
-        <v>3300916</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S19" s="10">
-        <v>0.58699999999999997</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="T19" s="10">
         <v>0</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="X19" s="12">
-        <v>41743</v>
+        <v>43585</v>
       </c>
       <c r="Y19" s="12"/>
       <c r="Z19" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10">
         <v>0.8</v>
       </c>
-      <c r="AD19" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="AE19" s="11">
-        <v>0.3614</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="10">
-        <v>1988</v>
+        <v>2178</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="I20" s="10">
-        <v>42.781999999999996</v>
+        <v>42.143300000000004</v>
       </c>
       <c r="J20" s="10">
-        <v>-112.375</v>
+        <v>-111.8192</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="M20" s="10">
-        <v>1943</v>
+        <v>1968</v>
       </c>
       <c r="N20" s="10">
-        <v>2060</v>
+        <v>2007</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="11">
-        <v>3300916</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>2017</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="T20" s="10">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="W20" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="X20" s="12">
-        <v>43585</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB20" s="10"/>
-      <c r="AC20" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-    </row>
-    <row r="21" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+    </row>
+    <row r="21" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="D21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="G21" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="10">
-        <v>42.143300000000004</v>
-      </c>
-      <c r="J21" s="10">
-        <v>-111.8192</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="M21" s="10">
-        <v>1968</v>
-      </c>
-      <c r="N21" s="10">
-        <v>2007</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="W21" s="10"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-    </row>
-    <row r="22" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+        <v>226</v>
+      </c>
+      <c r="M22" s="10">
+        <v>1958</v>
+      </c>
+      <c r="N22" s="10">
+        <v>2050</v>
+      </c>
       <c r="O22" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W22" s="10"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-    </row>
-    <row r="23" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+    </row>
+    <row r="23" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+        <v>275</v>
+      </c>
+      <c r="I23" s="10">
+        <v>44.634999999999998</v>
+      </c>
+      <c r="J23" s="10">
+        <v>-116.486</v>
+      </c>
       <c r="K23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="M23" s="10">
-        <v>1958</v>
-      </c>
-      <c r="N23" s="10">
-        <v>2050</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W23" s="10"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-    </row>
-    <row r="24" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+    </row>
+    <row r="24" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I24" s="10">
-        <v>44.634999999999998</v>
+        <v>42.418199999999999</v>
       </c>
       <c r="J24" s="10">
-        <v>-116.486</v>
+        <v>-114.4991</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="M24" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="M24" s="10">
+        <v>1994</v>
+      </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W24" s="10"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-    </row>
-    <row r="25" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+    </row>
+    <row r="25" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="I25" s="10">
-        <v>42.418199999999999</v>
+        <v>44.450499999999998</v>
       </c>
       <c r="J25" s="10">
-        <v>-114.4991</v>
+        <v>-111.37050000000001</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="M25" s="10">
-        <v>1994</v>
+        <v>1980</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="P25" s="11">
+        <v>50000</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>2009</v>
+      </c>
       <c r="R25" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-    </row>
-    <row r="26" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+    </row>
+    <row r="26" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="I26" s="10">
-        <v>44.450499999999998</v>
+        <v>46.71</v>
       </c>
       <c r="J26" s="10">
-        <v>-111.37050000000001</v>
+        <v>-116.902</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="M26" s="10">
-        <v>1980</v>
-      </c>
-      <c r="N26" s="10"/>
+        <v>1971</v>
+      </c>
+      <c r="N26" s="10">
+        <v>1993</v>
+      </c>
       <c r="O26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="11">
-        <v>50000</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>2009</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="10"/>
       <c r="R26" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="W26" s="10"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-    </row>
-    <row r="27" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+    </row>
+    <row r="27" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="I27" s="10">
-        <v>46.71</v>
+        <v>45.118893</v>
       </c>
       <c r="J27" s="10">
-        <v>-116.902</v>
+        <v>-113.86152300000001</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="M27" s="10">
-        <v>1971</v>
-      </c>
-      <c r="N27" s="10">
-        <v>1993</v>
-      </c>
+        <v>1980</v>
+      </c>
+      <c r="N27" s="10"/>
       <c r="O27" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P27" s="11"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="W27" s="10"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-    </row>
-    <row r="28" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+    </row>
+    <row r="28" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="I28" s="10">
+        <v>45.125999999999998</v>
+      </c>
+      <c r="J28" s="10">
+        <v>-113.833</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="I28" s="10">
-        <v>45.118893</v>
-      </c>
-      <c r="J28" s="10">
-        <v>-113.86152300000001</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>293</v>
-      </c>
       <c r="M28" s="10">
-        <v>1980</v>
-      </c>
-      <c r="N28" s="10"/>
+        <v>1993</v>
+      </c>
+      <c r="N28" s="10">
+        <v>2015</v>
+      </c>
       <c r="O28" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P28" s="11"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W28" s="10"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-    </row>
-    <row r="29" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+    </row>
+    <row r="29" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="B29" s="10">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>295</v>
+        <v>114</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>296</v>
+        <v>115</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H29" s="9">
-        <v>83467</v>
+        <v>117</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="I29" s="10">
-        <v>45.125999999999998</v>
+        <v>42.462000000000003</v>
       </c>
       <c r="J29" s="10">
-        <v>-113.833</v>
+        <v>-114.005</v>
       </c>
       <c r="K29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1994</v>
+      </c>
+      <c r="N29" s="10">
+        <v>2050</v>
+      </c>
+      <c r="O29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="M29" s="10">
-        <v>1993</v>
-      </c>
-      <c r="N29" s="10">
-        <v>2015</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="10"/>
+      <c r="P29" s="11">
+        <v>4227349</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>2018</v>
+      </c>
       <c r="R29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0.93600000000000005</v>
+      </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W29" s="10"/>
-      <c r="X29" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29" s="12">
+        <v>43278</v>
+      </c>
       <c r="Y29" s="12"/>
       <c r="Z29" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-    </row>
-    <row r="30" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC29" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="50">
+        <v>0.11747</v>
+      </c>
+      <c r="AG29" s="50">
+        <v>1.372E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B30" s="10">
-        <v>2191</v>
+        <v>20895</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="I30" s="10">
-        <v>42.462000000000003</v>
+        <v>43.853999999999999</v>
       </c>
       <c r="J30" s="10">
-        <v>-114.005</v>
+        <v>-112.508</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="M30" s="10">
-        <v>1994</v>
+        <v>1970</v>
       </c>
       <c r="N30" s="10">
-        <v>2050</v>
+        <v>1996</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P30" s="11">
-        <v>3982526</v>
+        <v>313070.321</v>
       </c>
       <c r="Q30" s="10">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S30" s="10">
-        <v>0.93600000000000005</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="S30" s="10"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X30" s="12">
-        <v>43278</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="W30" s="10"/>
+      <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+    </row>
+    <row r="31" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10">
+        <v>2189</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="10">
+        <v>42.210098000000002</v>
+      </c>
+      <c r="J31" s="10">
+        <v>-112.237099</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <v>1981</v>
+      </c>
+      <c r="N31" s="10">
+        <v>2002</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="AA30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="11">
-        <v>0.11747</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>0.13730000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="10">
-        <v>20895</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="10">
-        <v>43.853999999999999</v>
-      </c>
-      <c r="J31" s="10">
-        <v>-112.508</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M31" s="10">
-        <v>1970</v>
-      </c>
-      <c r="N31" s="10">
-        <v>1996</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P31" s="11">
-        <v>313070.321</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>1996</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W31" s="10"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-    </row>
-    <row r="32" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+    </row>
+    <row r="32" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="B32" s="10">
-        <v>2189</v>
+        <v>2175</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I32" s="10">
-        <v>42.210098000000002</v>
+        <v>43.493000000000002</v>
       </c>
       <c r="J32" s="10">
-        <v>-112.237099</v>
+        <v>-116.70399999999999</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="M32" s="10">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="N32" s="10">
-        <v>2002</v>
+        <v>2035</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="P32" s="11">
+        <v>5100415</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>2018</v>
+      </c>
       <c r="R32" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W32" s="10"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-    </row>
-    <row r="33" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+    </row>
+    <row r="33" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B33" s="10">
-        <v>2175</v>
+        <v>20702</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="I33" s="10">
-        <v>43.493000000000002</v>
+        <v>43.256283000000003</v>
       </c>
       <c r="J33" s="10">
-        <v>-116.70399999999999</v>
+        <v>-115.90283700000001</v>
       </c>
       <c r="K33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N33" s="10">
+        <v>2166</v>
+      </c>
+      <c r="O33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="M33" s="10">
-        <v>1983</v>
-      </c>
-      <c r="N33" s="10">
-        <v>2035</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="P33" s="11">
-        <v>4806812</v>
+        <v>2551524</v>
       </c>
       <c r="Q33" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="W33" s="10"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-    </row>
-    <row r="34" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+    </row>
+    <row r="34" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
       <c r="B34" s="10">
-        <v>20702</v>
+        <v>2192</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="I34" s="10">
-        <v>43.256283000000003</v>
+        <v>43.980800000000002</v>
       </c>
       <c r="J34" s="10">
-        <v>-115.90283700000001</v>
+        <v>-111.67789999999999</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M34" s="10">
-        <v>2000</v>
-      </c>
-      <c r="N34" s="10">
-        <v>2166</v>
-      </c>
+        <v>1965</v>
+      </c>
+      <c r="N34" s="10"/>
       <c r="O34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P34" s="11">
-        <v>2391266</v>
+        <v>75000</v>
       </c>
       <c r="Q34" s="10">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="W34" s="10"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-    </row>
-    <row r="35" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+    </row>
+    <row r="35" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="B35" s="10">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="I35" s="10">
-        <v>43.980800000000002</v>
+        <v>43.725999999999999</v>
       </c>
       <c r="J35" s="10">
-        <v>-111.67789999999999</v>
+        <v>-111.07299999999999</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="M35" s="10">
-        <v>1965</v>
-      </c>
-      <c r="N35" s="10"/>
+        <v>1980</v>
+      </c>
+      <c r="N35" s="10">
+        <v>2007</v>
+      </c>
       <c r="O35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="11">
-        <v>75000</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>2009</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="W35" s="10"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="Z35" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-    </row>
-    <row r="36" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+    </row>
+    <row r="36" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B36" s="14">
         <v>2193</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="I36" s="14">
         <v>43.725999999999999</v>
@@ -5319,10 +5380,10 @@
         <v>-111.07299999999999</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M36" s="14">
         <v>1980</v>
@@ -5331,47 +5392,48 @@
         <v>2007</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P36" s="15"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="W36" s="14"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
       <c r="Z36" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG36">
     <sortCondition ref="C2:C36"/>
     <sortCondition ref="U2:U36"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
-  <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="98" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Idaho&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Idaho&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -5383,7 +5445,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5401,10 +5463,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5412,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5420,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5428,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5436,7 +5498,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5444,7 +5506,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5452,7 +5514,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5460,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5468,7 +5530,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5476,7 +5538,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5484,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5492,7 +5554,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5500,7 +5562,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5508,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5516,7 +5578,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5524,7 +5586,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5532,7 +5594,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5540,7 +5602,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -5548,7 +5610,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5556,7 +5618,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5564,7 +5626,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5572,7 +5634,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5580,7 +5642,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5588,7 +5650,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5596,7 +5658,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5604,7 +5666,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5612,7 +5674,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -5620,47 +5682,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>71</v>
+      <c r="A30" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>72</v>
+      <c r="A31" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>74</v>
+      <c r="B34" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
